--- a/db/groups/save/save.xlsx
+++ b/db/groups/save/save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.lima\Desktop\Python geral\rpa-pedido-restituicao-ECAC\db\groups\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BB8C93-DD40-41A2-94BB-21D19F83B90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3689CEE-12D5-4D24-A1E2-94BDF4262696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68946582-1971-48CE-87AC-D022115897C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>49586278@2024</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>FIBONACCI ENGENHARIA E SERVICOS TECNICOS LTDA</t>
+  </si>
+  <si>
+    <t>21.315.711/0001-25</t>
   </si>
 </sst>
 </file>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2548495C-7194-4DCC-AF88-F8C85A9C70E1}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD89"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,6 +530,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/db/groups/save/save.xlsx
+++ b/db/groups/save/save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.lima\Desktop\Python geral\rpa-pedido-restituicao-ECAC\db\groups\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3689CEE-12D5-4D24-A1E2-94BDF4262696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26785AED-F6E5-4D6B-B0D6-D24DAEB6A756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68946582-1971-48CE-87AC-D022115897C5}"/>
   </bookViews>
@@ -77,13 +77,13 @@
     <t>49586278@2024</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>FIBONACCI ENGENHARIA E SERVICOS TECNICOS LTDA</t>
   </si>
   <si>
     <t>21.315.711/0001-25</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
 </sst>
 </file>
@@ -127,9 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,12 +469,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
@@ -480,7 +482,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -497,7 +499,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -514,7 +516,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -531,14 +533,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>

--- a/db/groups/save/save.xlsx
+++ b/db/groups/save/save.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.lima\Desktop\Python geral\rpa-pedido-restituicao-ECAC\db\groups\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26785AED-F6E5-4D6B-B0D6-D24DAEB6A756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397FED02-2237-468C-ADE2-6E7BAE8DFAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68946582-1971-48CE-87AC-D022115897C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -59,18 +59,6 @@
     <t>02</t>
   </si>
   <si>
-    <t>ARTESANATOS BIBELO LTDA</t>
-  </si>
-  <si>
-    <t>BUTERI COMERCIO E REPRESENTACOES LTDA</t>
-  </si>
-  <si>
-    <t>31.095.761/0001-06</t>
-  </si>
-  <si>
-    <t>31.474.414/0001-86</t>
-  </si>
-  <si>
     <t>DUX.pfx</t>
   </si>
   <si>
@@ -83,14 +71,17 @@
     <t>21.315.711/0001-25</t>
   </si>
   <si>
-    <t>03</t>
+    <t>EFETAIO FACCAO DE PECAS DO VESTUARIO LTDA</t>
+  </si>
+  <si>
+    <t>26.610.524/0001-98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +96,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Univers"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -466,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2548495C-7194-4DCC-AF88-F8C85A9C70E1}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,16 +499,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -520,33 +516,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
